--- a/项目文档/管理计划/校准系统_第一阶段_进度计划6_9.xlsx
+++ b/项目文档/管理计划/校准系统_第一阶段_进度计划6_9.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="217">
   <si>
     <t>标识号</t>
   </si>
@@ -705,6 +705,14 @@
   <si>
     <t>前置
 任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 个工作日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -712,7 +720,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -736,13 +744,26 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -778,10 +799,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -791,15 +815,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -821,15 +836,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4873,7 +4901,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4907,7 +4935,7 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="12" t="s">
         <v>214</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -4919,83 +4947,83 @@
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="F2" s="15"/>
-      <c r="I2" s="6">
+      <c r="F2" s="13"/>
+      <c r="I2" s="16">
         <v>43990</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="4">
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="14">
         <v>43997</v>
       </c>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="4">
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="14">
         <v>44004</v>
       </c>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4">
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14">
         <v>44011</v>
       </c>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="4">
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="14">
         <v>44018</v>
       </c>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="5"/>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="4">
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="15"/>
+      <c r="AG2" s="15"/>
+      <c r="AH2" s="14">
         <v>44025</v>
       </c>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="5"/>
-      <c r="AK2" s="5"/>
-      <c r="AL2" s="5"/>
-      <c r="AM2" s="4">
+      <c r="AI2" s="15"/>
+      <c r="AJ2" s="15"/>
+      <c r="AK2" s="15"/>
+      <c r="AL2" s="15"/>
+      <c r="AM2" s="14">
         <v>44032</v>
       </c>
-      <c r="AN2" s="5"/>
-      <c r="AO2" s="5"/>
-      <c r="AP2" s="5"/>
-      <c r="AQ2" s="5"/>
-      <c r="AR2" s="4">
+      <c r="AN2" s="15"/>
+      <c r="AO2" s="15"/>
+      <c r="AP2" s="15"/>
+      <c r="AQ2" s="15"/>
+      <c r="AR2" s="14">
         <v>44039</v>
       </c>
-      <c r="AS2" s="5"/>
-      <c r="AT2" s="5"/>
-      <c r="AU2" s="5"/>
-      <c r="AV2" s="5"/>
+      <c r="AS2" s="15"/>
+      <c r="AT2" s="15"/>
+      <c r="AU2" s="15"/>
+      <c r="AV2" s="15"/>
     </row>
     <row r="3" spans="1:48" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="12">
+      <c r="C3" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="D3" s="9">
         <v>43990</v>
       </c>
-      <c r="E3" s="12">
-        <v>44008</v>
-      </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="9"/>
+      <c r="E3" s="9">
+        <v>43994</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="6"/>
       <c r="I3" t="s">
         <v>166</v>
       </c>
@@ -5118,1714 +5146,1726 @@
       </c>
     </row>
     <row r="4" spans="1:48" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="10">
         <v>43990</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="10">
         <v>43990</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="9" t="s">
+      <c r="F4" s="8"/>
+      <c r="G4" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:48" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="8">
         <v>1.2</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="10">
         <v>43990</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="10">
         <v>43990</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="9" t="s">
+      <c r="F5" s="8"/>
+      <c r="G5" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:48" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="A6" s="8">
         <v>1.3</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="10">
         <v>43991</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="10">
         <v>43991</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="9" t="s">
+      <c r="G6" s="7"/>
+      <c r="H6" s="6" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:48" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="8">
         <v>1.4</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="10">
         <v>43992</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="10">
         <v>43992</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="9" t="s">
+      <c r="G7" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:48" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="8">
         <v>1.5</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="10">
         <v>43991</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="10">
         <v>43992</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="9" t="s">
+      <c r="G8" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:48" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="8">
         <v>1.6</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="10">
         <v>43993</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="10">
         <v>43994</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="9" t="s">
+      <c r="G9" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:48" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="A10" s="8">
         <v>1.7</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="10">
         <v>43993</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="10">
         <v>43994</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="9" t="s">
+      <c r="G10" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:48" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="9"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:48" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="A12" s="4">
         <v>2</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="9">
         <v>43997</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="9">
         <v>44008</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="9"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:48" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
+      <c r="A13" s="8">
         <v>2.1</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="10">
         <v>43997</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="10">
         <v>43998</v>
       </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="9" t="s">
+      <c r="F13" s="8"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="6" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:48" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
+      <c r="A14" s="8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="10">
         <v>43999</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="10">
         <v>44001</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="9" t="s">
+      <c r="G14" s="7"/>
+      <c r="H14" s="6" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:48" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
+      <c r="A15" s="8">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="10">
         <v>44004</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="10">
         <v>44005</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="9" t="s">
+      <c r="G15" s="7"/>
+      <c r="H15" s="6" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:48" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
+      <c r="A16" s="8">
         <v>2.4</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="10">
         <v>44006</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="10">
         <v>44008</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="9" t="s">
+      <c r="G16" s="7"/>
+      <c r="H16" s="6" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="9"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
+      <c r="A18" s="4">
         <v>3</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="9">
         <v>43997</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="9">
         <v>44001</v>
       </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="9"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
+      <c r="A19" s="4">
         <v>3.1</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="9">
         <v>43997</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="9">
         <v>43999</v>
       </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="9"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="10">
         <v>43997</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="10">
         <v>43997</v>
       </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="9" t="s">
+      <c r="F20" s="8"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="6" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="10">
         <v>43998</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="10">
         <v>43998</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="9" t="s">
+      <c r="G21" s="7"/>
+      <c r="H21" s="6" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="10">
         <v>43999</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="10">
         <v>43999</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="9" t="s">
+      <c r="G22" s="7"/>
+      <c r="H22" s="6" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
+      <c r="A23" s="4">
         <v>3.2</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="9">
         <v>44000</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="9">
         <v>44001</v>
       </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="9"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="10">
         <v>44000</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="10">
         <v>44000</v>
       </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="9" t="s">
+      <c r="F24" s="8"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="6" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="10">
         <v>44001</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="10">
         <v>44001</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="F25" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G25" s="10"/>
-      <c r="H25" s="9" t="s">
+      <c r="G25" s="7"/>
+      <c r="H25" s="6" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="9"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
+      <c r="A27" s="4">
         <v>4</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="9">
         <v>43997</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="9">
         <v>44015</v>
       </c>
-      <c r="F27" s="11"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="9"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
+      <c r="A28" s="4">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="9">
         <v>43997</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="9">
         <v>44000</v>
       </c>
-      <c r="F28" s="11"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="9"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D29" s="10">
         <v>43997</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E29" s="10">
         <v>43997</v>
       </c>
-      <c r="F29" s="11"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="9" t="s">
+      <c r="F29" s="8"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="6" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D30" s="10">
         <v>43998</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E30" s="10">
         <v>43999</v>
       </c>
-      <c r="F30" s="11" t="s">
+      <c r="F30" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G30" s="10"/>
-      <c r="H30" s="9" t="s">
+      <c r="G30" s="7"/>
+      <c r="H30" s="6" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D31" s="10">
         <v>44000</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E31" s="10">
         <v>44000</v>
       </c>
-      <c r="F31" s="11" t="s">
+      <c r="F31" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G31" s="10"/>
-      <c r="H31" s="9" t="s">
+      <c r="G31" s="7"/>
+      <c r="H31" s="6" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
+      <c r="A32" s="4">
         <v>4.2</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D32" s="9">
         <v>43997</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E32" s="9">
         <v>44001</v>
       </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="9"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D33" s="10">
         <v>43997</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E33" s="10">
         <v>43997</v>
       </c>
-      <c r="F33" s="11"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="9" t="s">
+      <c r="F33" s="8"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="6" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D34" s="10">
         <v>43998</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E34" s="10">
         <v>43998</v>
       </c>
-      <c r="F34" s="11" t="s">
+      <c r="F34" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G34" s="10"/>
-      <c r="H34" s="9" t="s">
+      <c r="G34" s="7"/>
+      <c r="H34" s="6" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D35" s="10">
         <v>43999</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E35" s="10">
         <v>43999</v>
       </c>
-      <c r="F35" s="11" t="s">
+      <c r="F35" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G35" s="10"/>
-      <c r="H35" s="9" t="s">
+      <c r="G35" s="7"/>
+      <c r="H35" s="6" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="13">
+      <c r="D36" s="10">
         <v>44000</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E36" s="10">
         <v>44000</v>
       </c>
-      <c r="F36" s="11" t="s">
+      <c r="F36" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G36" s="10"/>
-      <c r="H36" s="9" t="s">
+      <c r="G36" s="7"/>
+      <c r="H36" s="6" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D37" s="13">
+      <c r="D37" s="10">
         <v>44001</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E37" s="10">
         <v>44001</v>
       </c>
-      <c r="F37" s="11" t="s">
+      <c r="F37" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G37" s="10"/>
-      <c r="H37" s="9" t="s">
+      <c r="G37" s="7"/>
+      <c r="H37" s="6" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7">
+      <c r="A38" s="4">
         <v>4.3</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D38" s="9">
         <v>44004</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E38" s="9">
         <v>44005</v>
       </c>
-      <c r="F38" s="11"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="9"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D39" s="10">
         <v>44004</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E39" s="10">
         <v>44004</v>
       </c>
-      <c r="F39" s="11"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="9" t="s">
+      <c r="F39" s="8"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="6" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D40" s="13">
+      <c r="D40" s="10">
         <v>44005</v>
       </c>
-      <c r="E40" s="13">
+      <c r="E40" s="10">
         <v>44005</v>
       </c>
-      <c r="F40" s="11" t="s">
+      <c r="F40" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="G40" s="10"/>
-      <c r="H40" s="9" t="s">
+      <c r="G40" s="7"/>
+      <c r="H40" s="6" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="7">
+      <c r="A41" s="4">
         <v>4.4000000000000004</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D41" s="12">
+      <c r="D41" s="9">
         <v>44006</v>
       </c>
-      <c r="E41" s="12">
+      <c r="E41" s="9">
         <v>44014</v>
       </c>
-      <c r="F41" s="11" t="s">
+      <c r="F41" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G41" s="10"/>
-      <c r="H41" s="9"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="6"/>
     </row>
     <row r="42" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D42" s="12">
+      <c r="D42" s="9">
         <v>44006</v>
       </c>
-      <c r="E42" s="12">
+      <c r="E42" s="9">
         <v>44008</v>
       </c>
-      <c r="F42" s="11"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="9"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="6"/>
     </row>
     <row r="43" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D43" s="13">
+      <c r="D43" s="10">
         <v>44006</v>
       </c>
-      <c r="E43" s="13">
+      <c r="E43" s="10">
         <v>44006</v>
       </c>
-      <c r="F43" s="11"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="9" t="s">
+      <c r="F43" s="8"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="6" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D44" s="13">
+      <c r="D44" s="10">
         <v>44007</v>
       </c>
-      <c r="E44" s="13">
+      <c r="E44" s="10">
         <v>44007</v>
       </c>
-      <c r="F44" s="11" t="s">
+      <c r="F44" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="G44" s="10"/>
-      <c r="H44" s="9" t="s">
+      <c r="G44" s="7"/>
+      <c r="H44" s="6" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D45" s="13">
+      <c r="D45" s="10">
         <v>44008</v>
       </c>
-      <c r="E45" s="13">
+      <c r="E45" s="10">
         <v>44008</v>
       </c>
-      <c r="F45" s="11" t="s">
+      <c r="F45" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="G45" s="10"/>
-      <c r="H45" s="9" t="s">
+      <c r="G45" s="7"/>
+      <c r="H45" s="6" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D46" s="13">
+      <c r="D46" s="10">
         <v>44011</v>
       </c>
-      <c r="E46" s="13">
+      <c r="E46" s="10">
         <v>44011</v>
       </c>
-      <c r="F46" s="11" t="s">
+      <c r="F46" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="G46" s="10"/>
-      <c r="H46" s="9" t="s">
+      <c r="G46" s="7"/>
+      <c r="H46" s="6" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D47" s="13">
+      <c r="D47" s="10">
         <v>44012</v>
       </c>
-      <c r="E47" s="13">
+      <c r="E47" s="10">
         <v>44012</v>
       </c>
-      <c r="F47" s="11" t="s">
+      <c r="F47" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="G47" s="10"/>
-      <c r="H47" s="9" t="s">
+      <c r="G47" s="7"/>
+      <c r="H47" s="6" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D48" s="13">
+      <c r="D48" s="10">
         <v>44013</v>
       </c>
-      <c r="E48" s="13">
+      <c r="E48" s="10">
         <v>44013</v>
       </c>
-      <c r="F48" s="11" t="s">
+      <c r="F48" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="G48" s="10"/>
-      <c r="H48" s="9" t="s">
+      <c r="G48" s="7"/>
+      <c r="H48" s="6" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D49" s="13">
+      <c r="D49" s="10">
         <v>44014</v>
       </c>
-      <c r="E49" s="13">
+      <c r="E49" s="10">
         <v>44014</v>
       </c>
-      <c r="F49" s="11" t="s">
+      <c r="F49" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="G49" s="10"/>
-      <c r="H49" s="9" t="s">
+      <c r="G49" s="7"/>
+      <c r="H49" s="6" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="7">
+      <c r="A50" s="4">
         <v>4.5</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C50" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D50" s="12">
+      <c r="D50" s="9">
         <v>44011</v>
       </c>
-      <c r="E50" s="12">
+      <c r="E50" s="9">
         <v>44013</v>
       </c>
-      <c r="F50" s="11" t="s">
+      <c r="F50" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G50" s="10"/>
-      <c r="H50" s="9"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="6"/>
     </row>
     <row r="51" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D51" s="13">
+      <c r="D51" s="10">
         <v>44011</v>
       </c>
-      <c r="E51" s="13">
+      <c r="E51" s="10">
         <v>44011</v>
       </c>
-      <c r="F51" s="11"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="9" t="s">
+      <c r="F51" s="8"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="6" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="11" t="s">
+      <c r="A52" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D52" s="13">
+      <c r="D52" s="10">
         <v>44012</v>
       </c>
-      <c r="E52" s="13">
+      <c r="E52" s="10">
         <v>44012</v>
       </c>
-      <c r="F52" s="11" t="s">
+      <c r="F52" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="G52" s="10"/>
-      <c r="H52" s="9" t="s">
+      <c r="G52" s="7"/>
+      <c r="H52" s="6" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="11" t="s">
+      <c r="A53" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C53" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D53" s="13">
+      <c r="D53" s="10">
         <v>44013</v>
       </c>
-      <c r="E53" s="13">
+      <c r="E53" s="10">
         <v>44013</v>
       </c>
-      <c r="F53" s="11" t="s">
+      <c r="F53" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="G53" s="10"/>
-      <c r="H53" s="9" t="s">
+      <c r="G53" s="7"/>
+      <c r="H53" s="6" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="7">
+      <c r="A54" s="4">
         <v>4.5999999999999996</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C54" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D54" s="12">
+      <c r="D54" s="9">
         <v>44014</v>
       </c>
-      <c r="E54" s="12">
+      <c r="E54" s="9">
         <v>44015</v>
       </c>
-      <c r="F54" s="11" t="s">
+      <c r="F54" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="G54" s="10"/>
-      <c r="H54" s="9"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="6"/>
     </row>
     <row r="55" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="11" t="s">
+      <c r="A55" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C55" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D55" s="13">
+      <c r="D55" s="10">
         <v>44014</v>
       </c>
-      <c r="E55" s="13">
+      <c r="E55" s="10">
         <v>44014</v>
       </c>
-      <c r="F55" s="11"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="9" t="s">
+      <c r="F55" s="8"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="6" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="11" t="s">
+      <c r="A56" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C56" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D56" s="13">
+      <c r="D56" s="10">
         <v>44015</v>
       </c>
-      <c r="E56" s="13">
+      <c r="E56" s="10">
         <v>44015</v>
       </c>
-      <c r="F56" s="11" t="s">
+      <c r="F56" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="G56" s="10"/>
-      <c r="H56" s="9" t="s">
+      <c r="G56" s="7"/>
+      <c r="H56" s="6" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="11"/>
-      <c r="B57" s="9"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="9"/>
+      <c r="A57" s="8"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="6"/>
     </row>
     <row r="58" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="7">
+      <c r="A58" s="4">
         <v>5</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C58" s="14" t="s">
+      <c r="C58" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D58" s="12">
+      <c r="D58" s="9">
         <v>44018</v>
       </c>
-      <c r="E58" s="12">
+      <c r="E58" s="9">
         <v>44029</v>
       </c>
-      <c r="F58" s="11" t="s">
+      <c r="F58" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G58" s="10"/>
-      <c r="H58" s="9"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="6"/>
     </row>
     <row r="59" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="11">
+      <c r="A59" s="8">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C59" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D59" s="13">
+      <c r="D59" s="10">
         <v>44018</v>
       </c>
-      <c r="E59" s="13">
+      <c r="E59" s="10">
         <v>44019</v>
       </c>
-      <c r="F59" s="11"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="9" t="s">
+      <c r="F59" s="8"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="6" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="11">
+      <c r="A60" s="8">
         <v>5.2</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C60" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="13">
+      <c r="D60" s="10">
         <v>44020</v>
       </c>
-      <c r="E60" s="13">
+      <c r="E60" s="10">
         <v>44021</v>
       </c>
-      <c r="F60" s="11" t="s">
+      <c r="F60" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="G60" s="10"/>
-      <c r="H60" s="9" t="s">
+      <c r="G60" s="7"/>
+      <c r="H60" s="6" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="11">
+      <c r="A61" s="8">
         <v>5.3</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C61" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D61" s="13">
+      <c r="D61" s="10">
         <v>44022</v>
       </c>
-      <c r="E61" s="13">
+      <c r="E61" s="10">
         <v>44022</v>
       </c>
-      <c r="F61" s="11" t="s">
+      <c r="F61" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="G61" s="10"/>
-      <c r="H61" s="9" t="s">
+      <c r="G61" s="7"/>
+      <c r="H61" s="6" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="11">
+      <c r="A62" s="8">
         <v>5.4</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C62" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D62" s="13">
+      <c r="D62" s="10">
         <v>44025</v>
       </c>
-      <c r="E62" s="13">
+      <c r="E62" s="10">
         <v>44025</v>
       </c>
-      <c r="F62" s="11" t="s">
+      <c r="F62" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="G62" s="10"/>
-      <c r="H62" s="9" t="s">
+      <c r="G62" s="7"/>
+      <c r="H62" s="6" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="11">
+      <c r="A63" s="8">
         <v>5.5</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C63" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D63" s="13">
+      <c r="D63" s="10">
         <v>44026</v>
       </c>
-      <c r="E63" s="13">
+      <c r="E63" s="10">
         <v>44026</v>
       </c>
-      <c r="F63" s="11" t="s">
+      <c r="F63" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="G63" s="10"/>
-      <c r="H63" s="9" t="s">
+      <c r="G63" s="7"/>
+      <c r="H63" s="6" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="11">
+      <c r="A64" s="8">
         <v>5.6</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C64" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D64" s="13">
+      <c r="D64" s="10">
         <v>44027</v>
       </c>
-      <c r="E64" s="13">
+      <c r="E64" s="10">
         <v>44027</v>
       </c>
-      <c r="F64" s="11" t="s">
+      <c r="F64" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="G64" s="10"/>
-      <c r="H64" s="9" t="s">
+      <c r="G64" s="7"/>
+      <c r="H64" s="6" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="11">
+      <c r="A65" s="8">
         <v>5.7</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="C65" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D65" s="13">
+      <c r="D65" s="10">
         <v>44028</v>
       </c>
-      <c r="E65" s="13">
+      <c r="E65" s="10">
         <v>44029</v>
       </c>
-      <c r="F65" s="11"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="9" t="s">
+      <c r="F65" s="8"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="6" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="11"/>
-      <c r="B66" s="9"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="9"/>
+      <c r="A66" s="8"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="6"/>
     </row>
     <row r="67" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="7">
+      <c r="A67" s="4">
         <v>6</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C67" s="14" t="s">
+      <c r="C67" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="D67" s="12">
+      <c r="D67" s="9">
         <v>44018</v>
       </c>
-      <c r="E67" s="12">
+      <c r="E67" s="9">
         <v>44034</v>
       </c>
-      <c r="F67" s="11"/>
-      <c r="G67" s="10"/>
-      <c r="H67" s="9"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="6"/>
     </row>
     <row r="68" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="7">
+      <c r="A68" s="4">
         <v>6.1</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C68" s="14" t="s">
+      <c r="C68" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D68" s="12">
+      <c r="D68" s="9">
         <v>44018</v>
       </c>
-      <c r="E68" s="12">
+      <c r="E68" s="9">
         <v>44027</v>
       </c>
-      <c r="F68" s="11" t="s">
+      <c r="F68" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G68" s="10"/>
-      <c r="H68" s="9"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="6"/>
     </row>
     <row r="69" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="11">
+      <c r="A69" s="8">
         <v>6.2</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C69" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D69" s="13">
+      <c r="D69" s="10">
         <v>44018</v>
       </c>
-      <c r="E69" s="13">
+      <c r="E69" s="10">
         <v>44019</v>
       </c>
-      <c r="F69" s="11"/>
-      <c r="G69" s="10"/>
-      <c r="H69" s="9" t="s">
+      <c r="F69" s="8"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="7">
+      <c r="A70" s="4">
         <v>6.3</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C70" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D70" s="13">
+      <c r="D70" s="10">
         <v>44020</v>
       </c>
-      <c r="E70" s="13">
+      <c r="E70" s="10">
         <v>44021</v>
       </c>
-      <c r="F70" s="11" t="s">
+      <c r="F70" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="G70" s="10"/>
-      <c r="H70" s="9" t="s">
+      <c r="G70" s="7"/>
+      <c r="H70" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="11">
+      <c r="A71" s="8">
         <v>6.4</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="C71" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D71" s="13">
+      <c r="D71" s="10">
         <v>44022</v>
       </c>
-      <c r="E71" s="13">
+      <c r="E71" s="10">
         <v>44025</v>
       </c>
-      <c r="F71" s="11" t="s">
+      <c r="F71" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="G71" s="10"/>
-      <c r="H71" s="9" t="s">
+      <c r="G71" s="7"/>
+      <c r="H71" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="7">
+      <c r="A72" s="4">
         <v>6.5</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="C72" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D72" s="13">
+      <c r="D72" s="10">
         <v>44026</v>
       </c>
-      <c r="E72" s="13">
+      <c r="E72" s="10">
         <v>44027</v>
       </c>
-      <c r="F72" s="11" t="s">
+      <c r="F72" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="G72" s="10"/>
-      <c r="H72" s="9" t="s">
+      <c r="G72" s="7"/>
+      <c r="H72" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="11">
+      <c r="A73" s="8">
         <v>6.6</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B73" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="C73" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D73" s="13">
+      <c r="D73" s="10">
         <v>44028</v>
       </c>
-      <c r="E73" s="13">
+      <c r="E73" s="10">
         <v>44034</v>
       </c>
-      <c r="F73" s="11" t="s">
+      <c r="F73" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="G73" s="10"/>
-      <c r="H73" s="9" t="s">
+      <c r="G73" s="7"/>
+      <c r="H73" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="11"/>
-      <c r="B74" s="9"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="11"/>
-      <c r="G74" s="10"/>
-      <c r="H74" s="9"/>
+      <c r="A74" s="8"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="6"/>
     </row>
     <row r="75" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="7">
-        <v>7</v>
-      </c>
-      <c r="B75" s="8" t="s">
+      <c r="A75" s="4">
+        <v>7</v>
+      </c>
+      <c r="B75" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C75" s="14" t="s">
+      <c r="C75" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D75" s="12">
+      <c r="D75" s="9">
         <v>44018</v>
       </c>
-      <c r="E75" s="12">
+      <c r="E75" s="9">
         <v>44022</v>
       </c>
-      <c r="F75" s="11"/>
-      <c r="G75" s="10"/>
-      <c r="H75" s="9"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="6"/>
     </row>
     <row r="76" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="11">
+      <c r="A76" s="8">
         <v>7.1</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="B76" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C76" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D76" s="13">
+      <c r="D76" s="10">
         <v>44018</v>
       </c>
-      <c r="E76" s="13">
+      <c r="E76" s="10">
         <v>44019</v>
       </c>
-      <c r="F76" s="11" t="s">
+      <c r="F76" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G76" s="10"/>
-      <c r="H76" s="9" t="s">
+      <c r="G76" s="7"/>
+      <c r="H76" s="6" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="11">
+      <c r="A77" s="8">
         <v>7.2</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B77" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C77" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D77" s="13">
+      <c r="D77" s="10">
         <v>44020</v>
       </c>
-      <c r="E77" s="13">
+      <c r="E77" s="10">
         <v>44021</v>
       </c>
-      <c r="F77" s="11" t="s">
+      <c r="F77" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="G77" s="10"/>
-      <c r="H77" s="9" t="s">
+      <c r="G77" s="7"/>
+      <c r="H77" s="6" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="11">
+      <c r="A78" s="8">
         <v>7.3</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B78" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="C78" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D78" s="13">
+      <c r="D78" s="10">
         <v>44022</v>
       </c>
-      <c r="E78" s="13">
+      <c r="E78" s="10">
         <v>44022</v>
       </c>
-      <c r="F78" s="11" t="s">
+      <c r="F78" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="G78" s="10"/>
-      <c r="H78" s="9" t="s">
+      <c r="G78" s="7"/>
+      <c r="H78" s="6" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="11"/>
-      <c r="B79" s="9"/>
-      <c r="C79" s="10"/>
-      <c r="D79" s="10"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="11"/>
-      <c r="G79" s="10"/>
-      <c r="H79" s="9"/>
+      <c r="A79" s="8"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="6"/>
     </row>
     <row r="80" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="7">
+      <c r="A80" s="4">
         <v>8</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B80" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C80" s="14" t="s">
+      <c r="C80" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D80" s="12">
+      <c r="D80" s="9">
         <v>44034</v>
       </c>
-      <c r="E80" s="12">
+      <c r="E80" s="9">
         <v>44040</v>
       </c>
-      <c r="F80" s="11"/>
-      <c r="G80" s="10"/>
-      <c r="H80" s="9"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="6"/>
     </row>
     <row r="81" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="11">
+      <c r="A81" s="8">
         <v>8.1</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="B81" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C81" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D81" s="13">
+      <c r="D81" s="10">
         <v>44034</v>
       </c>
-      <c r="E81" s="13">
+      <c r="E81" s="10">
         <v>44036</v>
       </c>
-      <c r="F81" s="11" t="s">
+      <c r="F81" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="G81" s="10"/>
-      <c r="H81" s="9" t="s">
+      <c r="G81" s="7"/>
+      <c r="H81" s="6" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="11">
+      <c r="A82" s="8">
         <v>8.1999999999999993</v>
       </c>
-      <c r="B82" s="9" t="s">
+      <c r="B82" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C82" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D82" s="13">
+      <c r="D82" s="10">
         <v>44039</v>
       </c>
-      <c r="E82" s="13">
+      <c r="E82" s="10">
         <v>44040</v>
       </c>
-      <c r="F82" s="11" t="s">
+      <c r="F82" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="G82" s="10"/>
-      <c r="H82" s="9" t="s">
+      <c r="G82" s="7"/>
+      <c r="H82" s="6" t="s">
         <v>183</v>
       </c>
     </row>

--- a/项目文档/管理计划/校准系统_第一阶段_进度计划6_9.xlsx
+++ b/项目文档/管理计划/校准系统_第一阶段_进度计划6_9.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="218">
   <si>
     <t>标识号</t>
   </si>
@@ -713,6 +713,10 @@
   </si>
   <si>
     <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭明东</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -836,6 +840,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -850,9 +857,6 @@
     </xf>
     <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4901,7 +4905,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4935,7 +4939,7 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="13" t="s">
         <v>214</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -4947,63 +4951,63 @@
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="F2" s="13"/>
-      <c r="I2" s="16">
+      <c r="F2" s="14"/>
+      <c r="I2" s="17">
         <v>43990</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="14">
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="15">
         <v>43997</v>
       </c>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="14">
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="15">
         <v>44004</v>
       </c>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14">
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15">
         <v>44011</v>
       </c>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="14">
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="15">
         <v>44018</v>
       </c>
-      <c r="AD2" s="15"/>
-      <c r="AE2" s="15"/>
-      <c r="AF2" s="15"/>
-      <c r="AG2" s="15"/>
-      <c r="AH2" s="14">
+      <c r="AD2" s="16"/>
+      <c r="AE2" s="16"/>
+      <c r="AF2" s="16"/>
+      <c r="AG2" s="16"/>
+      <c r="AH2" s="15">
         <v>44025</v>
       </c>
-      <c r="AI2" s="15"/>
-      <c r="AJ2" s="15"/>
-      <c r="AK2" s="15"/>
-      <c r="AL2" s="15"/>
-      <c r="AM2" s="14">
+      <c r="AI2" s="16"/>
+      <c r="AJ2" s="16"/>
+      <c r="AK2" s="16"/>
+      <c r="AL2" s="16"/>
+      <c r="AM2" s="15">
         <v>44032</v>
       </c>
-      <c r="AN2" s="15"/>
-      <c r="AO2" s="15"/>
-      <c r="AP2" s="15"/>
-      <c r="AQ2" s="15"/>
-      <c r="AR2" s="14">
+      <c r="AN2" s="16"/>
+      <c r="AO2" s="16"/>
+      <c r="AP2" s="16"/>
+      <c r="AQ2" s="16"/>
+      <c r="AR2" s="15">
         <v>44039</v>
       </c>
-      <c r="AS2" s="15"/>
-      <c r="AT2" s="15"/>
-      <c r="AU2" s="15"/>
-      <c r="AV2" s="15"/>
+      <c r="AS2" s="16"/>
+      <c r="AT2" s="16"/>
+      <c r="AU2" s="16"/>
+      <c r="AV2" s="16"/>
     </row>
     <row r="3" spans="1:48" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
@@ -5162,7 +5166,7 @@
         <v>43990</v>
       </c>
       <c r="F4" s="8"/>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="12" t="s">
         <v>216</v>
       </c>
       <c r="H4" s="6" t="s">
@@ -5186,7 +5190,7 @@
         <v>43990</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="12" t="s">
         <v>216</v>
       </c>
       <c r="H5" s="6" t="s">
@@ -5236,7 +5240,7 @@
       <c r="F7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="12" t="s">
         <v>216</v>
       </c>
       <c r="H7" s="6" t="s">
@@ -5262,7 +5266,7 @@
       <c r="F8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="12" t="s">
         <v>216</v>
       </c>
       <c r="H8" s="6" t="s">
@@ -5288,7 +5292,7 @@
       <c r="F9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="12" t="s">
         <v>216</v>
       </c>
       <c r="H9" s="6" t="s">
@@ -5314,7 +5318,7 @@
       <c r="F10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="12" t="s">
         <v>216</v>
       </c>
       <c r="H10" s="6" t="s">
@@ -5604,7 +5608,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="7"/>
       <c r="H24" s="6" t="s">
-        <v>148</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
